--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H2">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J2">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N2">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q2">
-        <v>6.286696853605087</v>
+        <v>10.46829772343533</v>
       </c>
       <c r="R2">
-        <v>6.286696853605087</v>
+        <v>94.214679510918</v>
       </c>
       <c r="S2">
-        <v>0.0002611445837929196</v>
+        <v>0.0003907302892164827</v>
       </c>
       <c r="T2">
-        <v>0.0002611445837929196</v>
+        <v>0.0003907302892164828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H3">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J3">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N3">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q3">
-        <v>8.047569441819709</v>
+        <v>12.55172744855289</v>
       </c>
       <c r="R3">
-        <v>8.047569441819709</v>
+        <v>112.965547036976</v>
       </c>
       <c r="S3">
-        <v>0.0003342898856692099</v>
+        <v>0.0004684945179921861</v>
       </c>
       <c r="T3">
-        <v>0.0003342898856692099</v>
+        <v>0.0004684945179921861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H4">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J4">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N4">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q4">
-        <v>68.65374905263538</v>
+        <v>114.0811169181949</v>
       </c>
       <c r="R4">
-        <v>68.65374905263538</v>
+        <v>1026.730052263754</v>
       </c>
       <c r="S4">
-        <v>0.002851824279055691</v>
+        <v>0.004258089422485179</v>
       </c>
       <c r="T4">
-        <v>0.002851824279055691</v>
+        <v>0.00425808942248518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H5">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J5">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N5">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q5">
-        <v>66.35114653209457</v>
+        <v>104.4570224133214</v>
       </c>
       <c r="R5">
-        <v>66.35114653209457</v>
+        <v>940.1132017198931</v>
       </c>
       <c r="S5">
-        <v>0.002756175929712692</v>
+        <v>0.003898869105229823</v>
       </c>
       <c r="T5">
-        <v>0.002756175929712692</v>
+        <v>0.003898869105229824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H6">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J6">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N6">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q6">
-        <v>95.46576782850288</v>
+        <v>154.6819219092474</v>
       </c>
       <c r="R6">
-        <v>95.46576782850288</v>
+        <v>1392.137297183227</v>
       </c>
       <c r="S6">
-        <v>0.003965575052620778</v>
+        <v>0.005773518644665342</v>
       </c>
       <c r="T6">
-        <v>0.003965575052620778</v>
+        <v>0.005773518644665343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.4172014534254</v>
+        <v>20.83749233333333</v>
       </c>
       <c r="H7">
-        <v>13.4172014534254</v>
+        <v>62.512477</v>
       </c>
       <c r="I7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="J7">
-        <v>0.01389363319654401</v>
+        <v>0.02059261534406822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N7">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q7">
-        <v>89.66518961466194</v>
+        <v>155.4694540944934</v>
       </c>
       <c r="R7">
-        <v>89.66518961466194</v>
+        <v>1399.225086850441</v>
       </c>
       <c r="S7">
-        <v>0.003724623465692722</v>
+        <v>0.005802913364479204</v>
       </c>
       <c r="T7">
-        <v>0.003724623465692722</v>
+        <v>0.005802913364479204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H8">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J8">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N8">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q8">
-        <v>14.45102006874962</v>
+        <v>15.50305384543867</v>
       </c>
       <c r="R8">
-        <v>14.45102006874962</v>
+        <v>139.527484608948</v>
       </c>
       <c r="S8">
-        <v>0.0006002843319974418</v>
+        <v>0.0005786530793068703</v>
       </c>
       <c r="T8">
-        <v>0.0006002843319974418</v>
+        <v>0.0005786530793068703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H9">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J9">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N9">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q9">
-        <v>18.49867907050481</v>
+        <v>18.58851473554844</v>
       </c>
       <c r="R9">
-        <v>18.49867907050481</v>
+        <v>167.296632619936</v>
       </c>
       <c r="S9">
-        <v>0.0007684209942166283</v>
+        <v>0.000693818224377191</v>
       </c>
       <c r="T9">
-        <v>0.0007684209942166283</v>
+        <v>0.0006938182243771911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H10">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J10">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N10">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q10">
-        <v>157.8120797705727</v>
+        <v>168.9487388547604</v>
       </c>
       <c r="R10">
-        <v>157.8120797705727</v>
+        <v>1520.538649692844</v>
       </c>
       <c r="S10">
-        <v>0.006555393213456517</v>
+        <v>0.006306029054532589</v>
       </c>
       <c r="T10">
-        <v>0.006555393213456517</v>
+        <v>0.00630602905453259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H11">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J11">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N11">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q11">
-        <v>152.5191642682756</v>
+        <v>154.6959100506442</v>
       </c>
       <c r="R11">
-        <v>152.5191642682756</v>
+        <v>1392.263190455798</v>
       </c>
       <c r="S11">
-        <v>0.006335529547673774</v>
+        <v>0.00577404075348169</v>
       </c>
       <c r="T11">
-        <v>0.006335529547673774</v>
+        <v>0.005774040753481691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H12">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J12">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N12">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q12">
-        <v>219.4439717539701</v>
+        <v>229.0766108902802</v>
       </c>
       <c r="R12">
-        <v>219.4439717539701</v>
+        <v>2061.689498012522</v>
       </c>
       <c r="S12">
-        <v>0.0091155349150792</v>
+        <v>0.008550308062552667</v>
       </c>
       <c r="T12">
-        <v>0.0091155349150792</v>
+        <v>0.008550308062552669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.8416728188063</v>
+        <v>30.85934066666667</v>
       </c>
       <c r="H13">
-        <v>30.8416728188063</v>
+        <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666733</v>
       </c>
       <c r="J13">
-        <v>0.03193683055291086</v>
+        <v>0.03049668942666734</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N13">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O13">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P13">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q13">
-        <v>206.1103763650818</v>
+        <v>230.2429088114363</v>
       </c>
       <c r="R13">
-        <v>206.1103763650818</v>
+        <v>2072.186179302926</v>
       </c>
       <c r="S13">
-        <v>0.008561667550487302</v>
+        <v>0.008593840252416326</v>
       </c>
       <c r="T13">
-        <v>0.008561667550487302</v>
+        <v>0.008593840252416324</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H14">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J14">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N14">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O14">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P14">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q14">
-        <v>186.5527425002506</v>
+        <v>216.3024908103373</v>
       </c>
       <c r="R14">
-        <v>186.5527425002506</v>
+        <v>1946.722417293036</v>
       </c>
       <c r="S14">
-        <v>0.007749258383234894</v>
+        <v>0.00807351271672024</v>
       </c>
       <c r="T14">
-        <v>0.007749258383234894</v>
+        <v>0.008073512716720242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H15">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J15">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N15">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O15">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P15">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q15">
-        <v>238.8052398250703</v>
+        <v>259.3516140658169</v>
       </c>
       <c r="R15">
-        <v>238.8052398250703</v>
+        <v>2334.164526592352</v>
       </c>
       <c r="S15">
-        <v>0.009919787197298155</v>
+        <v>0.009680325669935484</v>
       </c>
       <c r="T15">
-        <v>0.009919787197298155</v>
+        <v>0.009680325669935484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H16">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J16">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N16">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O16">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P16">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q16">
-        <v>2037.245546737101</v>
+        <v>2357.215126637901</v>
       </c>
       <c r="R16">
-        <v>2037.245546737101</v>
+        <v>21214.93613974111</v>
       </c>
       <c r="S16">
-        <v>0.0846256234037365</v>
+        <v>0.08798329704692838</v>
       </c>
       <c r="T16">
-        <v>0.0846256234037365</v>
+        <v>0.08798329704692839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H17">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J17">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N17">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O17">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P17">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q17">
-        <v>1968.917643372627</v>
+        <v>2158.356088788998</v>
       </c>
       <c r="R17">
-        <v>1968.917643372627</v>
+        <v>19425.20479910099</v>
       </c>
       <c r="S17">
-        <v>0.08178733450559658</v>
+        <v>0.08056086300609422</v>
       </c>
       <c r="T17">
-        <v>0.08178733450559658</v>
+        <v>0.08056086300609423</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H18">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J18">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N18">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O18">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P18">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q18">
-        <v>2832.870936521563</v>
+        <v>3196.13425947925</v>
       </c>
       <c r="R18">
-        <v>2832.870936521563</v>
+        <v>28765.20833531325</v>
       </c>
       <c r="S18">
-        <v>0.1176752941781744</v>
+        <v>0.1192960399650551</v>
       </c>
       <c r="T18">
-        <v>0.1176752941781744</v>
+        <v>0.1192960399650551</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>398.144810558109</v>
+        <v>430.5572513333333</v>
       </c>
       <c r="H19">
-        <v>398.144810558109</v>
+        <v>1291.671754</v>
       </c>
       <c r="I19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877027</v>
       </c>
       <c r="J19">
-        <v>0.4122825446277873</v>
+        <v>0.4254974503877028</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N19">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O19">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P19">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q19">
-        <v>2660.743379065266</v>
+        <v>3212.406740236142</v>
       </c>
       <c r="R19">
-        <v>2660.743379065266</v>
+        <v>28911.66066212528</v>
       </c>
       <c r="S19">
-        <v>0.1105252469597468</v>
+        <v>0.1199034119829693</v>
       </c>
       <c r="T19">
-        <v>0.1105252469597468</v>
+        <v>0.1199034119829693</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H20">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J20">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N20">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O20">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P20">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q20">
-        <v>173.7081736082612</v>
+        <v>186.6937713056853</v>
       </c>
       <c r="R20">
-        <v>173.7081736082612</v>
+        <v>1680.243941751168</v>
       </c>
       <c r="S20">
-        <v>0.007215704805671415</v>
+        <v>0.006968364215882051</v>
       </c>
       <c r="T20">
-        <v>0.007215704805671415</v>
+        <v>0.006968364215882052</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H21">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J21">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N21">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O21">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P21">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q21">
-        <v>222.3629709332203</v>
+        <v>223.8500848638862</v>
       </c>
       <c r="R21">
-        <v>222.3629709332203</v>
+        <v>2014.650763774976</v>
       </c>
       <c r="S21">
-        <v>0.009236787910651915</v>
+        <v>0.00835522744105691</v>
       </c>
       <c r="T21">
-        <v>0.009236787910651915</v>
+        <v>0.008355227441056911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H22">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J22">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N22">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O22">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P22">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q22">
-        <v>1896.976685372449</v>
+        <v>2034.546066123278</v>
       </c>
       <c r="R22">
-        <v>1896.976685372449</v>
+        <v>18310.91459510951</v>
       </c>
       <c r="S22">
-        <v>0.07879896207853306</v>
+        <v>0.07593964117594162</v>
       </c>
       <c r="T22">
-        <v>0.07879896207853306</v>
+        <v>0.07593964117594164</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H23">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J23">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N23">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O23">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P23">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q23">
-        <v>1833.353309265241</v>
+        <v>1862.907988377863</v>
       </c>
       <c r="R23">
-        <v>1833.353309265241</v>
+        <v>16766.17189540077</v>
       </c>
       <c r="S23">
-        <v>0.07615609564804986</v>
+        <v>0.06953323227071047</v>
       </c>
       <c r="T23">
-        <v>0.07615609564804986</v>
+        <v>0.06953323227071048</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H24">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J24">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N24">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O24">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P24">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q24">
-        <v>2637.821507504367</v>
+        <v>2758.629159868039</v>
       </c>
       <c r="R24">
-        <v>2637.821507504367</v>
+        <v>24827.66243881236</v>
       </c>
       <c r="S24">
-        <v>0.1095730899291286</v>
+        <v>0.102966117123629</v>
       </c>
       <c r="T24">
-        <v>0.1095730899291286</v>
+        <v>0.1029661171236291</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>370.731659833751</v>
+        <v>371.6201173333334</v>
       </c>
       <c r="H25">
-        <v>370.731659833751</v>
+        <v>1114.860352</v>
       </c>
       <c r="I25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="J25">
-        <v>0.3838959796464164</v>
+        <v>0.3672529308203304</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N25">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O25">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P25">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q25">
-        <v>2477.545313047755</v>
+        <v>2772.674170582536</v>
       </c>
       <c r="R25">
-        <v>2477.545313047755</v>
+        <v>24954.06753524282</v>
       </c>
       <c r="S25">
-        <v>0.1029153392743816</v>
+        <v>0.1034903485931103</v>
       </c>
       <c r="T25">
-        <v>0.1029153392743816</v>
+        <v>0.1034903485931103</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H26">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J26">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N26">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O26">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P26">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q26">
-        <v>66.16825617632047</v>
+        <v>73.06959200280801</v>
       </c>
       <c r="R26">
-        <v>66.16825617632047</v>
+        <v>657.626328025272</v>
       </c>
       <c r="S26">
-        <v>0.002748578804075725</v>
+        <v>0.002727330036885718</v>
       </c>
       <c r="T26">
-        <v>0.002748578804075725</v>
+        <v>0.002727330036885718</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H27">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J27">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N27">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O27">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P27">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q27">
-        <v>84.70165634242377</v>
+        <v>87.61210540878933</v>
       </c>
       <c r="R27">
-        <v>84.70165634242377</v>
+        <v>788.5089486791039</v>
       </c>
       <c r="S27">
-        <v>0.003518442086074005</v>
+        <v>0.00327013084549598</v>
       </c>
       <c r="T27">
-        <v>0.003518442086074005</v>
+        <v>0.00327013084549598</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H28">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J28">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N28">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O28">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P28">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q28">
-        <v>722.5891371196942</v>
+        <v>796.2957195777574</v>
       </c>
       <c r="R28">
-        <v>722.5891371196942</v>
+        <v>7166.661476199816</v>
       </c>
       <c r="S28">
-        <v>0.03001580064389424</v>
+        <v>0.02972181963414392</v>
       </c>
       <c r="T28">
-        <v>0.03001580064389424</v>
+        <v>0.02972181963414392</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H29">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J29">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N29">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O29">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P29">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q29">
-        <v>698.3539629098841</v>
+        <v>729.1187365145747</v>
       </c>
       <c r="R29">
-        <v>698.3539629098841</v>
+        <v>6562.068628631172</v>
       </c>
       <c r="S29">
-        <v>0.02900909002470151</v>
+        <v>0.02721443183199853</v>
       </c>
       <c r="T29">
-        <v>0.02900909002470151</v>
+        <v>0.02721443183199853</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H30">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J30">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N30">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O30">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P30">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q30">
-        <v>1004.788926337869</v>
+        <v>1079.692727769479</v>
       </c>
       <c r="R30">
-        <v>1004.788926337869</v>
+        <v>9717.234549925308</v>
       </c>
       <c r="S30">
-        <v>0.04173816426630585</v>
+        <v>0.04029964211295463</v>
       </c>
       <c r="T30">
-        <v>0.04173816426630585</v>
+        <v>0.04029964211295463</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.217692472391</v>
+        <v>145.447436</v>
       </c>
       <c r="H31">
-        <v>141.217692472391</v>
+        <v>436.342308</v>
       </c>
       <c r="I31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="J31">
-        <v>0.146232195058296</v>
+        <v>0.1437381741726046</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N31">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O31">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P31">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q31">
-        <v>943.7371285238681</v>
+        <v>1085.189768165663</v>
       </c>
       <c r="R31">
-        <v>943.7371285238681</v>
+        <v>9766.707913490964</v>
       </c>
       <c r="S31">
-        <v>0.03920211923324465</v>
+        <v>0.04050481971112585</v>
       </c>
       <c r="T31">
-        <v>0.03920211923324465</v>
+        <v>0.04050481971112584</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H32">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J32">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N32">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O32">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P32">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q32">
-        <v>5.320718941909537</v>
+        <v>6.314819954864666</v>
       </c>
       <c r="R32">
-        <v>5.320718941909537</v>
+        <v>56.833379593782</v>
       </c>
       <c r="S32">
-        <v>0.0002210185994203424</v>
+        <v>0.0002357013043095391</v>
       </c>
       <c r="T32">
-        <v>0.0002210185994203424</v>
+        <v>0.0002357013043095392</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H33">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J33">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N33">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O33">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P33">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q33">
-        <v>6.811025911145716</v>
+        <v>7.571612983713776</v>
       </c>
       <c r="R33">
-        <v>6.811025911145716</v>
+        <v>68.14451685342399</v>
       </c>
       <c r="S33">
-        <v>0.0002829248122166047</v>
+        <v>0.0002826112333754772</v>
       </c>
       <c r="T33">
-        <v>0.0002829248122166047</v>
+        <v>0.0002826112333754772</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H34">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J34">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N34">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O34">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P34">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q34">
-        <v>58.1048063114397</v>
+        <v>68.81746513337177</v>
       </c>
       <c r="R34">
-        <v>58.1048063114397</v>
+        <v>619.357186200346</v>
       </c>
       <c r="S34">
-        <v>0.002413629257766387</v>
+        <v>0.002568618964142673</v>
       </c>
       <c r="T34">
-        <v>0.002413629257766387</v>
+        <v>0.002568618964142674</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H35">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J35">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N35">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O35">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P35">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q35">
-        <v>56.15600853543362</v>
+        <v>63.01189620206188</v>
       </c>
       <c r="R35">
-        <v>56.15600853543362</v>
+        <v>567.107065818557</v>
       </c>
       <c r="S35">
-        <v>0.002332677687178116</v>
+        <v>0.002351925506664992</v>
       </c>
       <c r="T35">
-        <v>0.002332677687178116</v>
+        <v>0.002351925506664992</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H36">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J36">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N36">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O36">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P36">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q36">
-        <v>80.79704350588705</v>
+        <v>93.30920011403587</v>
       </c>
       <c r="R36">
-        <v>80.79704350588705</v>
+        <v>839.782801026323</v>
       </c>
       <c r="S36">
-        <v>0.003356247452260041</v>
+        <v>0.003482775491329015</v>
       </c>
       <c r="T36">
-        <v>0.003356247452260041</v>
+        <v>0.003482775491329016</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.3555909538916</v>
+        <v>12.56985766666667</v>
       </c>
       <c r="H37">
-        <v>11.3555909538916</v>
+        <v>37.709573</v>
       </c>
       <c r="I37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="J37">
-        <v>0.0117588169180455</v>
+        <v>0.01242213984862671</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N37">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O37">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P37">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q37">
-        <v>75.88774899159647</v>
+        <v>93.78426531468989</v>
       </c>
       <c r="R37">
-        <v>75.88774899159647</v>
+        <v>844.058387832209</v>
       </c>
       <c r="S37">
-        <v>0.003152319109204006</v>
+        <v>0.003500507348805009</v>
       </c>
       <c r="T37">
-        <v>0.003152319109204006</v>
+        <v>0.003500507348805009</v>
       </c>
     </row>
   </sheetData>
